--- a/meta-rules.xlsx
+++ b/meta-rules.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8055"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8055" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="branches" sheetId="1" r:id="rId1"/>
@@ -5020,10 +5020,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5322,7 +5325,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D579"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="A70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -23913,7 +23916,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B265"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -25379,7 +25384,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H213"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A152" workbookViewId="0">
+      <selection activeCell="B122" sqref="B122"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -25451,7 +25458,7 @@
       <c r="A4">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="3" t="s">
         <v>1451</v>
       </c>
       <c r="C4" t="s">
@@ -25474,7 +25481,7 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
+      <c r="B5" s="3" t="s">
         <v>1452</v>
       </c>
     </row>
